--- a/diagrams/refereeDownSignal/RefereeSolo.xlsx
+++ b/diagrams/refereeDownSignal/RefereeSolo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms-firmata\diagrams\refereeDownSignal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FFE5E0-1E2E-40CF-9918-5B9BBA874554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04568377-1B64-4AE8-B4CE-7CD81E452FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
+    <workbookView xWindow="4365" yWindow="1110" windowWidth="21600" windowHeight="11295" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Referee" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>pin</t>
   </si>
@@ -123,9 +123,6 @@
     <t>refbox/decision</t>
   </si>
   <si>
-    <t>1000 200 200</t>
-  </si>
-  <si>
     <t>TONE</t>
   </si>
   <si>
@@ -135,16 +132,19 @@
     <t>Down sound A1</t>
   </si>
   <si>
-    <t>C6,250,PAUSE,125,C6,250</t>
-  </si>
-  <si>
-    <t>C4,250,C5,250,PAUSE,250,C4,250,C5,250</t>
-  </si>
-  <si>
     <t>button</t>
   </si>
   <si>
     <t>topic</t>
+  </si>
+  <si>
+    <t>1800,200,100 - 6,7</t>
+  </si>
+  <si>
+    <t>1250,250,250</t>
+  </si>
+  <si>
+    <t>C6,250,D6,250,PAUSE,250,C6,250,D6,250</t>
   </si>
 </sst>
 </file>
@@ -209,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -247,25 +247,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -586,7 +568,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -611,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>6</v>
@@ -623,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>1</v>
@@ -632,307 +614,252 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="19" customFormat="1">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>9</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="13">
-        <v>2</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="12">
+        <v>8</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" s="19" customFormat="1">
-      <c r="A3" s="13" t="s">
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B4" s="12">
         <v>9</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="12">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12">
+        <v>9</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="13">
-        <v>2</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="12">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" s="19" customFormat="1">
-      <c r="A4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="F7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="12">
+        <v>7</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="12">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12">
+        <v>6</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" s="19" customFormat="1">
-      <c r="A5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="14">
-        <v>9</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="17">
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="12">
+        <v>6</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="12">
+        <v>6</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="12">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="12">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3">
         <v>1000</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" s="19" customFormat="1">
-      <c r="A6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="14">
-        <v>8</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="13">
-        <v>2</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" s="19" customFormat="1" ht="30">
-      <c r="A7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="14">
-        <v>8</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="13">
-        <v>2</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" s="19" customFormat="1">
-      <c r="A8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="14">
-        <v>7</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="19" customFormat="1">
-      <c r="A9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="14">
-        <v>7</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="19" customFormat="1">
-      <c r="A10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="14">
-        <v>7</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="19" customFormat="1">
-      <c r="A11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="14">
-        <v>6</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="19" customFormat="1">
-      <c r="A12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="14">
-        <v>6</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="19" customFormat="1">
-      <c r="A13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="14">
-        <v>6</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="19" customFormat="1">
-      <c r="A14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="14">
-        <v>14</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="17">
-        <v>2000</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="1:9" s="19" customFormat="1">
-      <c r="A15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="14">
-        <v>15</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/diagrams/refereeDownSignal/RefereeSolo.xlsx
+++ b/diagrams/refereeDownSignal/RefereeSolo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms-firmata\diagrams\refereeDownSignal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04568377-1B64-4AE8-B4CE-7CD81E452FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88321C8B-6D11-47EA-A51C-790B6EAF2257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="1110" windowWidth="21600" windowHeight="11295" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Referee" sheetId="1" r:id="rId1"/>
